--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1101123.518866241</v>
+        <v>1098642.599040781</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1373,10 +1373,10 @@
         <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.9558991545849</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579942</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010493</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>154.107735475218</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>60.512031443251</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>124.4141165118269</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890427</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>133.4565625454875</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>169.6300402591275</v>
       </c>
       <c r="E14" t="n">
-        <v>321.242168517787</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>106.8005343208579</v>
       </c>
       <c r="G16" t="n">
-        <v>20.02266614744684</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271165</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890427</v>
@@ -1822,7 +1822,7 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1850,7 +1850,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>152.0828573063226</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>233.1475124013468</v>
       </c>
       <c r="W17" t="n">
         <v>275.3456855116939</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249327</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121758</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086017</v>
+        <v>133.2594259035657</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257228</v>
@@ -2090,7 +2090,7 @@
         <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>35.22112280504722</v>
+        <v>212.3210115582275</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
@@ -2135,7 +2135,7 @@
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644158</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249327</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411903</v>
+        <v>84.85683139908261</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365929192</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257228</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245668</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
@@ -2381,7 +2381,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>168.3363911711835</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290871</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249323</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085005</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721212</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330914</v>
+        <v>92.1305250533091</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860166</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411896</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432819</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206868</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V25" t="n">
         <v>178.2423601181089</v>
@@ -2539,7 +2539,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463757</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958415</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687276</v>
+        <v>247.6326277687286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,16 +2956,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124555</v>
@@ -2998,25 +2998,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285802</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>230.7340562419018</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533748</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621585</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419014</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383239</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>93.13769105450112</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,16 +4034,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>110.548026295317</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7340562419023</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2154.822967855898</v>
+        <v>1465.153151170352</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.05251817521</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828183</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489663</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597795</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644998</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299091</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3086.842841128092</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="U11" t="n">
-        <v>2860.504431661652</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V11" t="n">
-        <v>2860.504431661652</v>
+        <v>2859.358467702584</v>
       </c>
       <c r="W11" t="n">
-        <v>2860.504431661652</v>
+        <v>2533.781879692194</v>
       </c>
       <c r="X11" t="n">
-        <v>2514.230740660296</v>
+        <v>2187.508188690837</v>
       </c>
       <c r="Y11" t="n">
-        <v>2514.230740660296</v>
+        <v>1824.56092397475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.437719463624</v>
+        <v>674.5515394274917</v>
       </c>
       <c r="C13" t="n">
-        <v>569.6936037954409</v>
+        <v>674.5515394274917</v>
       </c>
       <c r="D13" t="n">
-        <v>446.769031642829</v>
+        <v>551.6269672748797</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0480053201592</v>
+        <v>430.9059409522102</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201592</v>
+        <v>311.2080607140236</v>
       </c>
       <c r="G13" t="n">
         <v>185.5372359546019</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5215,7 +5215,7 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.502109058534</v>
@@ -5224,25 +5224,25 @@
         <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>2140.502109058534</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1945.927560887784</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U13" t="n">
-        <v>1684.016761273152</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.524340326989</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.299237549752</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X13" t="n">
-        <v>1059.494628917946</v>
+        <v>829.0079369980076</v>
       </c>
       <c r="Y13" t="n">
-        <v>865.89411703414</v>
+        <v>829.0079369980076</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1764.138540242739</v>
+        <v>1995.092811518092</v>
       </c>
       <c r="C14" t="n">
-        <v>1764.138540242739</v>
+        <v>1653.322361837404</v>
       </c>
       <c r="D14" t="n">
-        <v>1433.064908895712</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589724</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3099.26741214273</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V14" t="n">
-        <v>2795.396592058883</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="W14" t="n">
-        <v>2469.820004048493</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="X14" t="n">
-        <v>2123.546313047137</v>
+        <v>2717.447849038578</v>
       </c>
       <c r="Y14" t="n">
-        <v>2123.546313047137</v>
+        <v>2354.50058432249</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158128</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609352</v>
+        <v>645.8050585070991</v>
       </c>
       <c r="C16" t="n">
-        <v>276.568521892752</v>
+        <v>504.0609428389164</v>
       </c>
       <c r="D16" t="n">
-        <v>276.568521892752</v>
+        <v>504.0609428389164</v>
       </c>
       <c r="E16" t="n">
-        <v>276.568521892752</v>
+        <v>504.0609428389164</v>
       </c>
       <c r="F16" t="n">
-        <v>156.8706416545654</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6457263541144</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402567</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.502109058533</v>
@@ -5470,16 +5470,16 @@
         <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535514</v>
+        <v>1194.659451599715</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152577</v>
+        <v>993.8619679614214</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314512</v>
+        <v>800.2614560776151</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.792834060368</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.472017327754</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1119.8480189288</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052367</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936082</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.199618800308</v>
+        <v>2744.229491638576</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.072663737991</v>
+        <v>2466.102536576259</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.248605684708</v>
+        <v>2167.278478522976</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.750973916693</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>632.1517731235555</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>537.8572904034456</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>462.3823511989069</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243104</v>
+        <v>389.1109578243108</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>316.8627105341975</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>223.8015741167135</v>
       </c>
       <c r="H19" t="n">
         <v>89.19609340604102</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>739.1585377459982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1554.55302580711</v>
+        <v>1733.441802325475</v>
       </c>
       <c r="C20" t="n">
-        <v>1260.232209074495</v>
+        <v>1439.120985592861</v>
       </c>
       <c r="D20" t="n">
-        <v>976.6082106755416</v>
+        <v>1155.496987193907</v>
       </c>
       <c r="E20" t="n">
-        <v>665.4616582850945</v>
+        <v>844.3504348034601</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628255</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
@@ -5783,19 +5783,19 @@
         <v>3194.269774201189</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682822</v>
+        <v>3194.269774201189</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.959810547049</v>
+        <v>2937.848587065415</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.832855484732</v>
+        <v>2659.721632003098</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.008797431449</v>
+        <v>2360.897573949815</v>
       </c>
       <c r="Y20" t="n">
-        <v>1866.511165663435</v>
+        <v>2045.3999421818</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5841,7 +5841,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.121778987228</v>
+        <v>632.151773123555</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671182</v>
+        <v>537.8572904034452</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625795</v>
+        <v>462.3823511989065</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>389.1109578243104</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>316.862710534197</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>223.801574116713</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604102</v>
+        <v>152.2260875423678</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.07579691749</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356241</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454038</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096707</v>
+        <v>739.1585377459977</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056949</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925381</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349341</v>
+        <v>973.0946095349361</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.7504049531256</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
         <v>73.37775482248237</v>
@@ -5987,25 +5987,25 @@
         <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018609</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>763.4819084917076</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516336</v>
+        <v>1748.048026412041</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575118</v>
+        <v>2294.826843470823</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454455</v>
+        <v>2797.799314350161</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811633</v>
+        <v>3192.573680707339</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567316</v>
@@ -6014,25 +6014,25 @@
         <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913274</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714071</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902801</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.022053929029</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235734</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504585</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830773</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094478</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130995</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377527</v>
+        <v>575.9874173775268</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574171</v>
+        <v>481.6929346574169</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528783</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782822</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.698354788169</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.637218370685</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.0617317963399</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667906</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663397</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892617</v>
+        <v>1623.942389892618</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342413</v>
+        <v>1801.927245478741</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119736</v>
+        <v>1654.802330256064</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453176</v>
+        <v>1440.341163589505</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591415</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259231</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357028</v>
+        <v>892.175055072031</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999697</v>
+        <v>746.024176136298</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6218,40 +6218,40 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641922</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6440,55 +6440,55 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398484</v>
+        <v>331.2808843398494</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557147</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455613</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641922</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6601,31 +6601,31 @@
         <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,10 +6640,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
@@ -6652,7 +6652,7 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>875.9322461484389</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2468.655602521437</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400774</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960312</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6871,37 +6871,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,7 +6944,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
@@ -6965,7 +6965,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647792</v>
+        <v>740.9069705127578</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107157</v>
+        <v>571.9707875848509</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722234</v>
+        <v>421.8541481725151</v>
       </c>
       <c r="E37" t="n">
         <v>329.9792181898302</v>
@@ -7087,10 +7087,10 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1280.777345210197</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578153</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150363</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908623</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211756</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7190,16 +7190,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225991</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685356</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D40" t="n">
-        <v>332.0236909300432</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214935</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974265</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816217</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515704</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V40" t="n">
-        <v>1176.23853988366</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205429</v>
+        <v>934.0185561150366</v>
       </c>
       <c r="X40" t="n">
-        <v>856.174688096369</v>
+        <v>706.0290052170193</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.3821089528388</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307328</v>
@@ -7403,19 +7403,19 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,19 +7439,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960651</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389144</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110075</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>379.2208771983801</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898304</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657634</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552289</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891714</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649975</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953107</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386224</v>
+        <v>740.9069705127578</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845589</v>
+        <v>670.6422221586943</v>
       </c>
       <c r="D46" t="n">
-        <v>576.5637463460666</v>
+        <v>520.5255827463585</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>372.6124891639654</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>225.722541666055</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7837,19 +7837,19 @@
         <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.44877978404</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151996</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.689990688879</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647053</v>
+        <v>946.0051453388409</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.2507297950186</v>
+        <v>823.8840007691541</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430639</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729012</v>
+        <v>184.4039433729019</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389609</v>
+        <v>191.4948909389618</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333073</v>
+        <v>181.0856325333083</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830247</v>
+        <v>179.3553748830257</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383996</v>
+        <v>182.8301554384006</v>
       </c>
       <c r="P8" t="n">
-        <v>190.890803558659</v>
+        <v>190.8908035586598</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266134</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875979</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372541</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672278</v>
+        <v>105.9629718672284</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253598</v>
+        <v>104.1013981253605</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677703</v>
+        <v>92.30246558677783</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835974</v>
+        <v>106.8829608359747</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798333</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615464</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564664</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085234</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140784</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.669460053093</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662709</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784328</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.7178102063579</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665426</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>209.1187564935594</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>108.7354935515738</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.7385611944695</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>336.8335818149096</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T11" t="n">
-        <v>22.89008807727564</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>240.3200804397574</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14.69154516007485</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271155</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292079</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.33294625642316</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>158.132854774429</v>
       </c>
       <c r="E14" t="n">
-        <v>33.76805496734826</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104942</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23662,13 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>11.70036711494683</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0829955244549</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>155.9522295602201</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>20.70946286306899</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>297.7596397309451</v>
+        <v>120.6597509777649</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832931.3803183436</v>
+        <v>832931.3803183433</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832931.3803183433</v>
+        <v>832931.3803183434</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906046.0532026001</v>
+        <v>906046.0532026</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906046.0532026003</v>
+        <v>906046.0532026</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>949395.484527627</v>
+        <v>949395.4845276269</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>964699.9490499685</v>
+        <v>964699.9490499687</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>964699.9490499684</v>
+        <v>964699.9490499687</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>964699.9490499684</v>
+        <v>964699.9490499685</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512061.6686287167</v>
+        <v>512061.6686287168</v>
       </c>
       <c r="E2" t="n">
-        <v>455962.5005656095</v>
+        <v>455962.5005656094</v>
       </c>
       <c r="F2" t="n">
-        <v>455962.5005656095</v>
+        <v>455962.5005656096</v>
       </c>
       <c r="G2" t="n">
-        <v>496581.7632790849</v>
+        <v>496581.763279085</v>
       </c>
       <c r="H2" t="n">
         <v>496581.7632790849</v>
       </c>
       <c r="I2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="J2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="K2" t="n">
         <v>513151.1061651769</v>
-      </c>
-      <c r="K2" t="n">
-        <v>513151.1061651764</v>
       </c>
       <c r="L2" t="n">
         <v>513151.1061651767</v>
       </c>
       <c r="M2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="O2" t="n">
         <v>513151.1061651765</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>513151.1061651767</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651768</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.1061651769</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755221</v>
+        <v>59764.55367552089</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163634</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487428</v>
+        <v>37580.10929487443</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298338</v>
+        <v>22821.46782983406</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954653</v>
+        <v>430603.4278954657</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364984</v>
+        <v>40024.16194364982</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.1619436498</v>
+        <v>40024.16194364981</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509206</v>
+        <v>77052.32230509196</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509204</v>
+        <v>77052.32230509202</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754384</v>
+        <v>90617.5102775438</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.9551969958</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="O4" t="n">
         <v>92183.89891818172</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186631</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26020.12114918375</v>
+        <v>26015.70757131576</v>
       </c>
       <c r="C6" t="n">
-        <v>26020.12114918375</v>
+        <v>26015.7075713157</v>
       </c>
       <c r="D6" t="n">
-        <v>-13455.21837413711</v>
+        <v>-13459.57612428194</v>
       </c>
       <c r="E6" t="n">
-        <v>-749870.1239064992</v>
+        <v>-750098.8783288988</v>
       </c>
       <c r="F6" t="n">
-        <v>339368.8482571335</v>
+        <v>339140.0938347351</v>
       </c>
       <c r="G6" t="n">
-        <v>301430.6885539037</v>
+        <v>301364.4111823593</v>
       </c>
       <c r="H6" t="n">
-        <v>339010.7978487781</v>
+        <v>338944.5204772336</v>
       </c>
       <c r="I6" t="n">
-        <v>313975.599755957</v>
+        <v>313975.5997559566</v>
       </c>
       <c r="J6" t="n">
-        <v>309402.7762715779</v>
+        <v>309402.776271578</v>
       </c>
       <c r="K6" t="n">
-        <v>334812.2092933746</v>
+        <v>334812.209293375</v>
       </c>
       <c r="L6" t="n">
         <v>297232.0999985007</v>
       </c>
       <c r="M6" t="n">
-        <v>136280.5099480207</v>
+        <v>136280.5099480208</v>
       </c>
       <c r="N6" t="n">
-        <v>338448.6099407452</v>
+        <v>338448.6099407453</v>
       </c>
       <c r="O6" t="n">
-        <v>338448.6099407453</v>
+        <v>338448.6099407449</v>
       </c>
       <c r="P6" t="n">
-        <v>338448.6099407453</v>
+        <v>338448.6099407451</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790563</v>
+        <v>69.7846528379042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,13 +26756,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,13 +26799,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>917.2219352810296</v>
@@ -26814,22 +26814,22 @@
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951237</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790563</v>
+        <v>69.7846528379042</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755394</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.458321010872957e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.11452592758508</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434006</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.660320410473</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.246564378018</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036574</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.22861846672123</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987528</v>
+        <v>90.83829126987547</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519093</v>
+        <v>84.46220888519112</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990499</v>
+        <v>7.649035050990795</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317063</v>
+        <v>75.62456067317085</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.635114443788</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4079043982189</v>
+        <v>227.407904398219</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F19" t="n">
-        <v>11.4955890107554</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075505</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075542</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075375</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075508</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571912</v>
       </c>
     </row>
     <row r="26">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>55.47778196371115</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565342</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>55.47778196371124</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371061</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413289</v>
+        <v>0.2805413179413232</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366636</v>
+        <v>2.873093772366577</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993309</v>
+        <v>10.81556915993287</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362289</v>
+        <v>23.8105936836224</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207935</v>
+        <v>35.68590767207862</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310263</v>
+        <v>44.2715240310254</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396541</v>
+        <v>49.26060069396441</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356621</v>
+        <v>50.0576887135652</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328712</v>
+        <v>47.26805598328616</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661056</v>
+        <v>40.34219219660974</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783671</v>
+        <v>30.29530624783609</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313202</v>
+        <v>17.62255356313166</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258804</v>
+        <v>6.392835282587909</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288168</v>
+        <v>1.228069619288143</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530631</v>
+        <v>0.02244330543530585</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796461</v>
+        <v>0.150102838179643</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840266</v>
+        <v>1.449677410840237</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693955</v>
+        <v>5.16801438469385</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906911</v>
+        <v>14.18142647906882</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710539</v>
+        <v>24.2383166371049</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126464</v>
+        <v>32.59140791264574</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665856</v>
+        <v>38.03263579665779</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655628</v>
+        <v>39.03924649655549</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847044</v>
+        <v>35.71328360846971</v>
       </c>
       <c r="P9" t="n">
-        <v>28.6630586344975</v>
+        <v>28.66305863449692</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447552</v>
+        <v>19.16049562447514</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767854</v>
+        <v>9.319542882767664</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608775</v>
+        <v>2.788094384608718</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890118</v>
+        <v>0.6050197731889995</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234514</v>
+        <v>0.009875186722344938</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486823</v>
+        <v>0.1258411772486797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811012</v>
+        <v>1.118842466810989</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078555</v>
+        <v>3.784387403078478</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481835</v>
+        <v>8.896971231481654</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489235</v>
+        <v>14.62045677489206</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477227</v>
+        <v>18.70915102477189</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908207</v>
+        <v>19.72617653908167</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115518</v>
+        <v>19.25713215115479</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875011</v>
+        <v>17.78707839874975</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287698</v>
+        <v>15.21991838287667</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852375</v>
+        <v>10.53748257852353</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381657</v>
+        <v>5.658276933381542</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233853</v>
+        <v>2.193068516233808</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625513</v>
+        <v>0.5376850300625404</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564495</v>
+        <v>0.006864064213564355</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,10 +32561,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33509,13 +33509,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019276</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302255</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086596</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>421.5121150100775</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.137011779454</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>761.4205919064709</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>359.5297983552933</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,10 +36999,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>442.92984774987</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>889.1354172278211</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
